--- a/output/3Y_P29_KFSDIV.xlsx
+++ b/output/3Y_P29_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -985,7 +988,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-23</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>14.5668</v>
@@ -1029,7 +1032,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-22</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.962</v>
@@ -1079,7 +1082,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-21</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.2659</v>
@@ -1129,7 +1132,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-20</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.4103</v>
@@ -1179,7 +1182,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-19</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.3976</v>
@@ -1229,7 +1232,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-18</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.9013</v>
@@ -1279,7 +1282,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-17</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.3527</v>
@@ -1329,7 +1332,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-16</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.8804</v>
@@ -1379,7 +1382,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-15</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.6268</v>
@@ -1429,7 +1432,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-14</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>15.3636</v>
@@ -1479,7 +1482,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-13</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.8711</v>
@@ -1529,7 +1532,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.1252</v>
@@ -1579,7 +1582,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.1934</v>
@@ -1629,7 +1632,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-10</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.1176</v>
@@ -1679,7 +1682,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-9</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>15.3311</v>
@@ -1729,7 +1732,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-8</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>15.3637</v>
@@ -1779,7 +1782,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-7</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.6447</v>
@@ -1829,7 +1832,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-6</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>15.486</v>
@@ -1879,7 +1882,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-5</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>16.1958</v>
@@ -1929,7 +1932,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-4</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>16.4264</v>
@@ -1979,7 +1982,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-3</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>17.107</v>
@@ -2029,7 +2032,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>16.8894</v>
@@ -2079,7 +2082,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>16.4004</v>
@@ -2129,7 +2132,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>15.3877</v>
@@ -2179,7 +2182,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.6367</v>
@@ -2229,7 +2232,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.0061</v>
@@ -2279,7 +2282,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.835</v>
@@ -2329,7 +2332,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.4216</v>
@@ -2379,7 +2382,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.2404</v>
@@ -2429,7 +2432,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.382</v>
@@ -2479,7 +2482,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>11.9583</v>
@@ -2529,7 +2532,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.2036</v>
@@ -2579,7 +2582,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>12.9136</v>
@@ -2629,7 +2632,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.4338</v>
@@ -2679,7 +2682,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>12.9657</v>
@@ -2729,7 +2732,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.3568</v>
@@ -2779,7 +2782,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.2487</v>
@@ -2914,7 +2917,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-23</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>14.5668</v>
@@ -2961,7 +2964,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-22</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.962</v>
@@ -3014,7 +3017,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-21</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.2659</v>
@@ -3067,7 +3070,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-20</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.4103</v>
@@ -3120,7 +3123,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-19</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.3976</v>
@@ -3173,7 +3176,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-18</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.9013</v>
@@ -3226,7 +3229,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-17</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.3527</v>
@@ -3279,7 +3282,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-16</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.8804</v>
@@ -3332,7 +3335,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-15</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.6268</v>
@@ -3385,7 +3388,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-14</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>15.3636</v>
@@ -3438,7 +3441,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-13</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.8711</v>
@@ -3491,7 +3494,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.1252</v>
@@ -3544,7 +3547,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.1934</v>
@@ -3597,7 +3600,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-10</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.1176</v>
@@ -3650,7 +3653,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-9</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>15.3311</v>
@@ -3703,7 +3706,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-8</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>15.3637</v>
@@ -3733,10 +3736,10 @@
         <v>178240.8627</v>
       </c>
       <c r="K17" s="1">
-        <v>133176.7072</v>
+        <v>133184.8662</v>
       </c>
       <c r="L17" s="1">
-        <v>13.5844</v>
+        <v>13.5852</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
@@ -3756,7 +3759,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-7</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.6447</v>
@@ -3786,10 +3789,10 @@
         <v>180713.8722</v>
       </c>
       <c r="K18" s="1">
-        <v>142895.9354</v>
+        <v>142904.0944</v>
       </c>
       <c r="L18" s="1">
-        <v>13.6939</v>
+        <v>13.6947</v>
       </c>
       <c r="M18" s="1">
         <v>1</v>
@@ -3809,7 +3812,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-6</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>15.486</v>
@@ -3839,10 +3842,10 @@
         <v>209801.1259</v>
       </c>
       <c r="K19" s="1">
-        <v>160454.2165</v>
+        <v>160462.3755</v>
       </c>
       <c r="L19" s="1">
-        <v>13.7947</v>
+        <v>13.7954</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -3862,7 +3865,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-5</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>16.1958</v>
@@ -3892,10 +3895,10 @@
         <v>228050.7204</v>
       </c>
       <c r="K20" s="1">
-        <v>160689.2923</v>
+        <v>160697.4513</v>
       </c>
       <c r="L20" s="1">
-        <v>13.797</v>
+        <v>13.7977</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -3915,7 +3918,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-4</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>16.4264</v>
@@ -3945,10 +3948,10 @@
         <v>240749.6968</v>
       </c>
       <c r="K21" s="1">
-        <v>162445.7722</v>
+        <v>162453.9312</v>
       </c>
       <c r="L21" s="1">
-        <v>13.8193</v>
+        <v>13.82</v>
       </c>
       <c r="M21" s="1">
         <v>0.75</v>
@@ -3968,7 +3971,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-3</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>17.107</v>
@@ -3998,10 +4001,10 @@
         <v>266941.2183</v>
       </c>
       <c r="K22" s="1">
-        <v>169769.0141</v>
+        <v>169777.1731</v>
       </c>
       <c r="L22" s="1">
-        <v>13.9156</v>
+        <v>13.9163</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -4021,7 +4024,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>16.8894</v>
@@ -4051,10 +4054,10 @@
         <v>274262.7239</v>
       </c>
       <c r="K23" s="1">
-        <v>171489.7299</v>
+        <v>171497.8889</v>
       </c>
       <c r="L23" s="1">
-        <v>13.942</v>
+        <v>13.9426</v>
       </c>
       <c r="M23" s="1">
         <v>1</v>
@@ -4074,7 +4077,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>16.4004</v>
@@ -4104,10 +4107,10 @@
         <v>288912.7478</v>
       </c>
       <c r="K24" s="1">
-        <v>184212.1679</v>
+        <v>184220.3269</v>
       </c>
       <c r="L24" s="1">
-        <v>14.1137</v>
+        <v>14.1143</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -4127,7 +4130,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>15.3877</v>
@@ -4157,10 +4160,10 @@
         <v>284644.5308</v>
       </c>
       <c r="K25" s="1">
-        <v>200647.2717</v>
+        <v>200655.4307</v>
       </c>
       <c r="L25" s="1">
-        <v>14.2788</v>
+        <v>14.2793</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -4180,7 +4183,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.6367</v>
@@ -4210,10 +4213,10 @@
         <v>282834.1475</v>
       </c>
       <c r="K26" s="1">
-        <v>224946.8633</v>
+        <v>224955.0223</v>
       </c>
       <c r="L26" s="1">
-        <v>14.3937</v>
+        <v>14.3942</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -4233,7 +4236,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.0061</v>
@@ -4263,10 +4266,10 @@
         <v>264896.4311</v>
       </c>
       <c r="K27" s="1">
-        <v>246747.2713</v>
+        <v>246755.4303</v>
       </c>
       <c r="L27" s="1">
-        <v>14.4173</v>
+        <v>14.4178</v>
       </c>
       <c r="M27" s="1">
         <v>0.5</v>
@@ -4286,7 +4289,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.835</v>
@@ -4316,10 +4319,10 @@
         <v>299015.4447</v>
       </c>
       <c r="K28" s="1">
-        <v>284749.8074</v>
+        <v>284757.9664</v>
       </c>
       <c r="L28" s="1">
-        <v>14.2157</v>
+        <v>14.2161</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -4339,7 +4342,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.4216</v>
@@ -4369,10 +4372,10 @@
         <v>320464.8229</v>
       </c>
       <c r="K29" s="1">
-        <v>278154.0848</v>
+        <v>278188.6025</v>
       </c>
       <c r="L29" s="1">
-        <v>14.2243</v>
+        <v>14.226</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -4392,7 +4395,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.2404</v>
@@ -4422,10 +4425,10 @@
         <v>307530.3001</v>
       </c>
       <c r="K30" s="1">
-        <v>276698.8961</v>
+        <v>276739.2243</v>
       </c>
       <c r="L30" s="1">
-        <v>14.2231</v>
+        <v>14.2252</v>
       </c>
       <c r="M30" s="1">
         <v>0.4</v>
@@ -4445,7 +4448,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.382</v>
@@ -4475,10 +4478,10 @@
         <v>305600.0631</v>
       </c>
       <c r="K31" s="1">
-        <v>309765.5169</v>
+        <v>309805.8451</v>
       </c>
       <c r="L31" s="1">
-        <v>14.1145</v>
+        <v>14.1164</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -4498,7 +4501,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>11.9583</v>
@@ -4528,10 +4531,10 @@
         <v>305219.9964</v>
       </c>
       <c r="K32" s="1">
-        <v>338682.7632</v>
+        <v>338723.0914</v>
       </c>
       <c r="L32" s="1">
-        <v>13.9506</v>
+        <v>13.9522</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -4551,7 +4554,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.2036</v>
@@ -4581,10 +4584,10 @@
         <v>321497.424</v>
       </c>
       <c r="K33" s="1">
-        <v>359028.558</v>
+        <v>359068.8862</v>
       </c>
       <c r="L33" s="1">
-        <v>13.8219</v>
+        <v>13.8235</v>
       </c>
       <c r="M33" s="1">
         <v>0.4</v>
@@ -4604,7 +4607,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>12.9136</v>
@@ -4634,10 +4637,10 @@
         <v>359451.8953</v>
       </c>
       <c r="K34" s="1">
-        <v>362684.4165</v>
+        <v>362724.7447</v>
       </c>
       <c r="L34" s="1">
-        <v>13.8038</v>
+        <v>13.8053</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -4657,7 +4660,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.4338</v>
@@ -4687,10 +4690,10 @@
         <v>382743.7683</v>
       </c>
       <c r="K35" s="1">
-        <v>354031.8735</v>
+        <v>354106.7731</v>
       </c>
       <c r="L35" s="1">
-        <v>13.8263</v>
+        <v>13.8293</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -4710,7 +4713,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>12.9657</v>
@@ -4740,10 +4743,10 @@
         <v>380898.0769</v>
       </c>
       <c r="K36" s="1">
-        <v>350726.7907</v>
+        <v>350814.9001</v>
       </c>
       <c r="L36" s="1">
-        <v>13.8299</v>
+        <v>13.8334</v>
       </c>
       <c r="M36" s="1">
         <v>0.3</v>
@@ -4763,7 +4766,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.3568</v>
@@ -4793,10 +4796,10 @@
         <v>408214.6406</v>
       </c>
       <c r="K37" s="1">
-        <v>372660.1026</v>
+        <v>372748.212</v>
       </c>
       <c r="L37" s="1">
-        <v>13.7776</v>
+        <v>13.7808</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -4816,7 +4819,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.2487</v>
@@ -4846,10 +4849,10 @@
         <v>415300.634</v>
       </c>
       <c r="K38" s="1">
-        <v>372100.9034</v>
+        <v>372191.2482</v>
       </c>
       <c r="L38" s="1">
-        <v>13.7782</v>
+        <v>13.7815</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -4954,7 +4957,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-23</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>14.5668</v>
@@ -5001,7 +5004,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-22</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.962</v>
@@ -5054,7 +5057,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-21</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.2659</v>
@@ -5107,7 +5110,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-20</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.4103</v>
@@ -5160,7 +5163,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-19</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.3976</v>
@@ -5213,7 +5216,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-18</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.9013</v>
@@ -5266,7 +5269,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-17</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.3527</v>
@@ -5319,7 +5322,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-16</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.8804</v>
@@ -5372,7 +5375,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-15</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.6268</v>
@@ -5425,7 +5428,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-14</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>15.3636</v>
@@ -5478,7 +5481,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-13</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.8711</v>
@@ -5531,7 +5534,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.1252</v>
@@ -5584,7 +5587,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.1934</v>
@@ -5637,7 +5640,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-10</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.1176</v>
@@ -5690,7 +5693,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-9</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>15.3311</v>
@@ -5743,7 +5746,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-8</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>15.3637</v>
@@ -5773,10 +5776,10 @@
         <v>178922.4539</v>
       </c>
       <c r="K17" s="1">
-        <v>138102.1978</v>
+        <v>138109.0558</v>
       </c>
       <c r="L17" s="1">
-        <v>13.6003</v>
+        <v>13.601</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
@@ -5796,7 +5799,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-7</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.6447</v>
@@ -5826,10 +5829,10 @@
         <v>181104.9275</v>
       </c>
       <c r="K18" s="1">
-        <v>148589.8914</v>
+        <v>148596.7493</v>
       </c>
       <c r="L18" s="1">
-        <v>13.7131</v>
+        <v>13.7137</v>
       </c>
       <c r="M18" s="1">
         <v>1</v>
@@ -5849,7 +5852,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-6</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>15.486</v>
@@ -5879,10 +5882,10 @@
         <v>210948.8057</v>
       </c>
       <c r="K19" s="1">
-        <v>167270.8332</v>
+        <v>167277.6912</v>
       </c>
       <c r="L19" s="1">
-        <v>13.8141</v>
+        <v>13.8147</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -5902,7 +5905,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-5</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>16.1958</v>
@@ -5932,10 +5935,10 @@
         <v>229556.6335</v>
       </c>
       <c r="K20" s="1">
-        <v>167992.1434</v>
+        <v>167999.0014</v>
       </c>
       <c r="L20" s="1">
-        <v>13.8207</v>
+        <v>13.8212</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -5955,7 +5958,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-4</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>16.4264</v>
@@ -5985,10 +5988,10 @@
         <v>242378.5779</v>
       </c>
       <c r="K21" s="1">
-        <v>170330.0583</v>
+        <v>170336.9163</v>
       </c>
       <c r="L21" s="1">
-        <v>13.8489</v>
+        <v>13.8494</v>
       </c>
       <c r="M21" s="1">
         <v>0.75</v>
@@ -6008,7 +6011,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-3</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>17.107</v>
@@ -6038,10 +6041,10 @@
         <v>269339.6521</v>
       </c>
       <c r="K22" s="1">
-        <v>178525.4777</v>
+        <v>178532.3357</v>
       </c>
       <c r="L22" s="1">
-        <v>13.9504</v>
+        <v>13.951</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -6061,7 +6064,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>16.8894</v>
@@ -6091,10 +6094,10 @@
         <v>276520.6689</v>
       </c>
       <c r="K23" s="1">
-        <v>180892.075</v>
+        <v>180898.933</v>
       </c>
       <c r="L23" s="1">
-        <v>13.9845</v>
+        <v>13.985</v>
       </c>
       <c r="M23" s="1">
         <v>1</v>
@@ -6114,7 +6117,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>16.4004</v>
@@ -6144,10 +6147,10 @@
         <v>291391.343</v>
       </c>
       <c r="K24" s="1">
-        <v>194861.6029</v>
+        <v>194868.4609</v>
       </c>
       <c r="L24" s="1">
-        <v>14.1608</v>
+        <v>14.1613</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -6167,7 +6170,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>15.3877</v>
@@ -6197,10 +6200,10 @@
         <v>286307.9082</v>
       </c>
       <c r="K25" s="1">
-        <v>212808.2807</v>
+        <v>212815.1387</v>
       </c>
       <c r="L25" s="1">
-        <v>14.3279</v>
+        <v>14.3283</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -6220,7 +6223,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.6367</v>
@@ -6250,10 +6253,10 @@
         <v>283790.5316</v>
       </c>
       <c r="K26" s="1">
-        <v>239140.6885</v>
+        <v>239147.5465</v>
       </c>
       <c r="L26" s="1">
-        <v>14.4403</v>
+        <v>14.4407</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -6273,7 +6276,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.0061</v>
@@ -6303,10 +6306,10 @@
         <v>264108.0181</v>
       </c>
       <c r="K27" s="1">
-        <v>262919.471</v>
+        <v>262926.329</v>
       </c>
       <c r="L27" s="1">
-        <v>14.4605</v>
+        <v>14.4608</v>
       </c>
       <c r="M27" s="1">
         <v>0.5</v>
@@ -6326,7 +6329,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.835</v>
@@ -6356,10 +6359,10 @@
         <v>299596.3027</v>
       </c>
       <c r="K28" s="1">
-        <v>301023.841</v>
+        <v>301030.699</v>
       </c>
       <c r="L28" s="1">
-        <v>14.2626</v>
+        <v>14.2629</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -6379,7 +6382,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.4216</v>
@@ -6409,10 +6412,10 @@
         <v>321821.8513</v>
       </c>
       <c r="K29" s="1">
-        <v>297900.6401</v>
+        <v>297919.9794</v>
       </c>
       <c r="L29" s="1">
-        <v>14.2669</v>
+        <v>14.2678</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -6432,7 +6435,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.2404</v>
@@ -6462,10 +6465,10 @@
         <v>307270.0171</v>
       </c>
       <c r="K30" s="1">
-        <v>297113.4668</v>
+        <v>297135.9493</v>
       </c>
       <c r="L30" s="1">
-        <v>14.2664</v>
+        <v>14.2675</v>
       </c>
       <c r="M30" s="1">
         <v>0.4</v>
@@ -6485,7 +6488,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.382</v>
@@ -6515,10 +6518,10 @@
         <v>304443.8454</v>
       </c>
       <c r="K31" s="1">
-        <v>333308.6234</v>
+        <v>333331.1058</v>
       </c>
       <c r="L31" s="1">
-        <v>14.1507</v>
+        <v>14.1516</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -6538,7 +6541,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>11.9583</v>
@@ -6568,10 +6571,10 @@
         <v>303594.9236</v>
       </c>
       <c r="K32" s="1">
-        <v>356687.4773</v>
+        <v>356709.9598</v>
       </c>
       <c r="L32" s="1">
-        <v>14.0215</v>
+        <v>14.0224</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -6591,7 +6594,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.2036</v>
@@ -6621,10 +6624,10 @@
         <v>319986.6288</v>
       </c>
       <c r="K33" s="1">
-        <v>366687.4773</v>
+        <v>366709.9598</v>
       </c>
       <c r="L33" s="1">
-        <v>13.9567</v>
+        <v>13.9576</v>
       </c>
       <c r="M33" s="1">
         <v>0.4</v>
@@ -6644,7 +6647,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>12.9136</v>
@@ -6674,10 +6677,10 @@
         <v>358601.6716</v>
       </c>
       <c r="K34" s="1">
-        <v>376687.4773</v>
+        <v>376709.9598</v>
       </c>
       <c r="L34" s="1">
-        <v>13.9045</v>
+        <v>13.9054</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -6697,7 +6700,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.4338</v>
@@ -6727,10 +6730,10 @@
         <v>382979.162</v>
       </c>
       <c r="K35" s="1">
-        <v>385395.622</v>
+        <v>385418.1045</v>
       </c>
       <c r="L35" s="1">
-        <v>13.8811</v>
+        <v>13.8819</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -6750,7 +6753,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>12.9657</v>
@@ -6780,10 +6783,10 @@
         <v>380101.9983</v>
       </c>
       <c r="K36" s="1">
-        <v>382761.8949</v>
+        <v>382794.9039</v>
       </c>
       <c r="L36" s="1">
-        <v>13.8841</v>
+        <v>13.8853</v>
       </c>
       <c r="M36" s="1">
         <v>0.3</v>
@@ -6803,7 +6806,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.3568</v>
@@ -6833,10 +6836,10 @@
         <v>408951.9721</v>
       </c>
       <c r="K37" s="1">
-        <v>407586.2572</v>
+        <v>407619.2662</v>
       </c>
       <c r="L37" s="1">
-        <v>13.8263</v>
+        <v>13.8274</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -6856,7 +6859,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.2487</v>
@@ -6886,10 +6889,10 @@
         <v>415766.314</v>
       </c>
       <c r="K38" s="1">
-        <v>407989.4414</v>
+        <v>408022.4504</v>
       </c>
       <c r="L38" s="1">
-        <v>13.8258</v>
+        <v>13.8269</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -6994,7 +6997,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-23</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>14.5668</v>
@@ -7041,7 +7044,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-22</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.962</v>
@@ -7094,7 +7097,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-21</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.2659</v>
@@ -7147,7 +7150,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-20</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.4103</v>
@@ -7200,7 +7203,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-19</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.3976</v>
@@ -7253,7 +7256,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-18</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.9013</v>
@@ -7306,7 +7309,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-17</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.3527</v>
@@ -7359,7 +7362,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-16</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.8804</v>
@@ -7412,7 +7415,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-15</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.6268</v>
@@ -7465,7 +7468,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-14</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>15.3636</v>
@@ -7518,7 +7521,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-13</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.8711</v>
@@ -7571,7 +7574,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.1252</v>
@@ -7624,7 +7627,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.1934</v>
@@ -7677,7 +7680,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-10</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.1176</v>
@@ -7730,7 +7733,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-9</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>15.3311</v>
@@ -7783,7 +7786,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-8</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>15.3637</v>
@@ -7813,10 +7816,10 @@
         <v>179604.3311</v>
       </c>
       <c r="K17" s="1">
-        <v>143273.1678</v>
+        <v>143278.5962</v>
       </c>
       <c r="L17" s="1">
-        <v>13.6184</v>
+        <v>13.6189</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
@@ -7836,7 +7839,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-7</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.6447</v>
@@ -7866,10 +7869,10 @@
         <v>181482.2846</v>
       </c>
       <c r="K18" s="1">
-        <v>154585.077</v>
+        <v>154590.5055</v>
       </c>
       <c r="L18" s="1">
-        <v>13.7343</v>
+        <v>13.7348</v>
       </c>
       <c r="M18" s="1">
         <v>1</v>
@@ -7889,7 +7892,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-6</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>15.486</v>
@@ -7919,10 +7922,10 @@
         <v>212120.3222</v>
       </c>
       <c r="K19" s="1">
-        <v>174467.1177</v>
+        <v>174472.5462</v>
       </c>
       <c r="L19" s="1">
-        <v>13.8353</v>
+        <v>13.8357</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -7942,7 +7945,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-5</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>16.1958</v>
@@ -7972,10 +7975,10 @@
         <v>231105.9602</v>
       </c>
       <c r="K20" s="1">
-        <v>175727.599</v>
+        <v>175733.0275</v>
       </c>
       <c r="L20" s="1">
-        <v>13.8461</v>
+        <v>13.8465</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -7995,7 +7998,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-4</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>16.4264</v>
@@ -8025,10 +8028,10 @@
         <v>244057.9488</v>
       </c>
       <c r="K21" s="1">
-        <v>178710.3095</v>
+        <v>178715.738</v>
       </c>
       <c r="L21" s="1">
-        <v>13.8801</v>
+        <v>13.8805</v>
       </c>
       <c r="M21" s="1">
         <v>0.75</v>
@@ -8048,7 +8051,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-3</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>17.107</v>
@@ -8078,10 +8081,10 @@
         <v>271834.9013</v>
       </c>
       <c r="K22" s="1">
-        <v>187864.0389</v>
+        <v>187869.4674</v>
       </c>
       <c r="L22" s="1">
-        <v>13.9869</v>
+        <v>13.9873</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -8101,7 +8104,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>16.8894</v>
@@ -8131,10 +8134,10 @@
         <v>278866.0586</v>
       </c>
       <c r="K23" s="1">
-        <v>190955.644</v>
+        <v>190961.0725</v>
       </c>
       <c r="L23" s="1">
-        <v>14.0287</v>
+        <v>14.0291</v>
       </c>
       <c r="M23" s="1">
         <v>1</v>
@@ -8154,7 +8157,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>16.4004</v>
@@ -8184,10 +8187,10 @@
         <v>293970.4519</v>
       </c>
       <c r="K24" s="1">
-        <v>206297.3341</v>
+        <v>206302.7626</v>
       </c>
       <c r="L24" s="1">
-        <v>14.2094</v>
+        <v>14.2098</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -8207,7 +8210,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>15.3877</v>
@@ -8237,10 +8240,10 @@
         <v>288012.222</v>
       </c>
       <c r="K25" s="1">
-        <v>225907.8604</v>
+        <v>225913.2889</v>
       </c>
       <c r="L25" s="1">
-        <v>14.3783</v>
+        <v>14.3787</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -8260,7 +8263,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.6367</v>
@@ -8290,10 +8293,10 @@
         <v>284733.5832</v>
       </c>
       <c r="K26" s="1">
-        <v>254473.4432</v>
+        <v>254478.8717</v>
       </c>
       <c r="L26" s="1">
-        <v>14.488</v>
+        <v>14.4883</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -8313,7 +8316,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.0061</v>
@@ -8343,10 +8346,10 @@
         <v>263166.2207</v>
       </c>
       <c r="K27" s="1">
-        <v>280439.0524</v>
+        <v>280444.4809</v>
       </c>
       <c r="L27" s="1">
-        <v>14.5043</v>
+        <v>14.5046</v>
       </c>
       <c r="M27" s="1">
         <v>0.5</v>
@@ -8366,7 +8369,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.835</v>
@@ -8396,10 +8399,10 @@
         <v>299180.9338</v>
       </c>
       <c r="K28" s="1">
-        <v>302636.8914</v>
+        <v>302642.3199</v>
       </c>
       <c r="L28" s="1">
-        <v>14.3851</v>
+        <v>14.3854</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -8419,7 +8422,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.4216</v>
@@ -8449,10 +8452,10 @@
         <v>322179.4297</v>
       </c>
       <c r="K29" s="1">
-        <v>320436.6553</v>
+        <v>320442.0838</v>
       </c>
       <c r="L29" s="1">
-        <v>14.3551</v>
+        <v>14.3553</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -8472,7 +8475,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.2404</v>
@@ -8502,10 +8505,10 @@
         <v>305862.7547</v>
       </c>
       <c r="K30" s="1">
-        <v>320449.1644</v>
+        <v>320454.5929</v>
       </c>
       <c r="L30" s="1">
-        <v>14.3551</v>
+        <v>14.3553</v>
       </c>
       <c r="M30" s="1">
         <v>0.4</v>
@@ -8525,7 +8528,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.382</v>
@@ -8555,10 +8558,10 @@
         <v>303342.603</v>
       </c>
       <c r="K31" s="1">
-        <v>341337.5772</v>
+        <v>341343.0057</v>
       </c>
       <c r="L31" s="1">
-        <v>14.2834</v>
+        <v>14.2836</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -8578,7 +8581,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>11.9583</v>
@@ -8608,10 +8611,10 @@
         <v>302551.9878</v>
       </c>
       <c r="K32" s="1">
-        <v>359373.8696</v>
+        <v>359379.298</v>
       </c>
       <c r="L32" s="1">
-        <v>14.1758</v>
+        <v>14.176</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -8631,7 +8634,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.2036</v>
@@ -8661,10 +8664,10 @@
         <v>318922.3001</v>
       </c>
       <c r="K33" s="1">
-        <v>369373.8696</v>
+        <v>369379.298</v>
       </c>
       <c r="L33" s="1">
-        <v>14.1059</v>
+        <v>14.1061</v>
       </c>
       <c r="M33" s="1">
         <v>0.4</v>
@@ -8684,7 +8687,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>12.9136</v>
@@ -8714,10 +8717,10 @@
         <v>357443.9591</v>
       </c>
       <c r="K34" s="1">
-        <v>379373.8696</v>
+        <v>379379.298</v>
       </c>
       <c r="L34" s="1">
-        <v>14.049</v>
+        <v>14.0492</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -8737,7 +8740,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.4338</v>
@@ -8767,10 +8770,10 @@
         <v>382163.2679</v>
       </c>
       <c r="K35" s="1">
-        <v>398800.7636</v>
+        <v>398806.1921</v>
       </c>
       <c r="L35" s="1">
-        <v>13.9906</v>
+        <v>13.9908</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -8790,7 +8793,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>12.9657</v>
@@ -8820,10 +8823,10 @@
         <v>378461.6186</v>
       </c>
       <c r="K36" s="1">
-        <v>408800.7636</v>
+        <v>408806.1921</v>
       </c>
       <c r="L36" s="1">
-        <v>13.9771</v>
+        <v>13.9773</v>
       </c>
       <c r="M36" s="1">
         <v>0.3</v>
@@ -8843,7 +8846,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.3568</v>
@@ -8873,10 +8876,10 @@
         <v>408034.4627</v>
       </c>
       <c r="K37" s="1">
-        <v>418800.7636</v>
+        <v>418806.1921</v>
       </c>
       <c r="L37" s="1">
-        <v>13.9518</v>
+        <v>13.952</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -8896,7 +8899,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.2487</v>
@@ -8926,10 +8929,10 @@
         <v>414579.7356</v>
       </c>
       <c r="K38" s="1">
-        <v>436697.6891</v>
+        <v>436703.1176</v>
       </c>
       <c r="L38" s="1">
-        <v>13.9276</v>
+        <v>13.9278</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -9034,7 +9037,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-23</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>14.5668</v>
@@ -9081,7 +9084,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-22</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.962</v>
@@ -9134,7 +9137,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-21</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.2659</v>
@@ -9187,7 +9190,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-20</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.4103</v>
@@ -9240,7 +9243,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-19</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.3976</v>
@@ -9293,7 +9296,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-18</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.9013</v>
@@ -9346,7 +9349,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-17</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.3527</v>
@@ -9399,7 +9402,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-16</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.8804</v>
@@ -9452,7 +9455,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-15</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.6268</v>
@@ -9505,7 +9508,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-14</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>15.3636</v>
@@ -9558,7 +9561,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-13</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.8711</v>
@@ -9611,7 +9614,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.1252</v>
@@ -9664,7 +9667,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.1934</v>
@@ -9717,7 +9720,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-10</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.1176</v>
@@ -9770,7 +9773,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-9</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>15.3311</v>
@@ -9823,7 +9826,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-8</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>15.3637</v>
@@ -9876,7 +9879,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-7</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.6447</v>
@@ -9929,7 +9932,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-6</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>15.486</v>
@@ -9982,7 +9985,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-5</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>16.1958</v>
@@ -10035,7 +10038,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-4</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>16.4264</v>
@@ -10088,7 +10091,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-3</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>17.107</v>
@@ -10141,7 +10144,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>16.8894</v>
@@ -10194,7 +10197,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>16.4004</v>
@@ -10247,7 +10250,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>15.3877</v>
@@ -10300,7 +10303,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.6367</v>
@@ -10353,7 +10356,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.0061</v>
@@ -10406,7 +10409,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.835</v>
@@ -10459,7 +10462,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.4216</v>
@@ -10512,7 +10515,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>13.2404</v>
@@ -10565,7 +10568,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.382</v>
@@ -10618,7 +10621,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>11.9583</v>
@@ -10671,7 +10674,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.2036</v>
@@ -10724,7 +10727,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>12.9136</v>
@@ -10777,7 +10780,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.4338</v>
@@ -10830,7 +10833,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>12.9657</v>
@@ -10883,7 +10886,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.3568</v>
@@ -10936,7 +10939,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.2487</v>
@@ -10994,13 +10997,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -11045,13 +11048,13 @@
         <v>13.9638</v>
       </c>
       <c r="D3" s="1">
-        <v>13.7782</v>
+        <v>13.7815</v>
       </c>
       <c r="E3" s="1">
-        <v>13.8258</v>
+        <v>13.8269</v>
       </c>
       <c r="F3" s="1">
-        <v>13.9276</v>
+        <v>13.9278</v>
       </c>
       <c r="G3" s="1">
         <v>14.0338</v>
@@ -11164,6 +11167,26 @@
       </c>
       <c r="G8" s="1">
         <v>79009.34699999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.9469</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.1158</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.019</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.9493</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.9422</v>
       </c>
     </row>
   </sheetData>
